--- a/biology/Botanique/Eucalyptus_cloeziana/Eucalyptus_cloeziana.xlsx
+++ b/biology/Botanique/Eucalyptus_cloeziana/Eucalyptus_cloeziana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus cloeziana est une espèce d'eucalyptus de la famille des Myrtaceae. C'est une espèce australienne de taille petite à grande avec une écorce rugueuse sur le tronc et les grosses branches, de couleur beige ou brun-jaune.
 Les feuilles adultes sont alternes, pétiolées, lancéolées mesurant de 13 cm de long sur 3 cm de large, d'un vert brillant.
 Les fleurs, blanches, apparaissent du début à la fin de l'été.
 On le trouve dans l'est du Queensland particulièrement à l'est de Tambo de Mundubbera à Gympie, et de l'ouest de Townsville au nord-ouest de Cooktown et dans des zones isolées entre les deux.
-L’Eucalyptus cloeziana a été formellement décrit pour la première fois en 1878 par Ferdinand von Mueller, à partir d'un spécimen recueilli près de la Baie de Rockingham (en), dans le Queensland septentrional, en Australie, par John Dallachy (en)[1]. L'épithète spécifique (cloeziana) rend hommage à François Stanislas Cloëz qui a identifié l’eucalyptol comme le constituant majeur de l'huile d'eucalyptus[2].
+L’Eucalyptus cloeziana a été formellement décrit pour la première fois en 1878 par Ferdinand von Mueller, à partir d'un spécimen recueilli près de la Baie de Rockingham (en), dans le Queensland septentrional, en Australie, par John Dallachy (en). L'épithète spécifique (cloeziana) rend hommage à François Stanislas Cloëz qui a identifié l’eucalyptol comme le constituant majeur de l'huile d'eucalyptus.
 </t>
         </is>
       </c>
